--- a/MatLab/Tiempos.xlsx
+++ b/MatLab/Tiempos.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="Whisper" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Google (Free API)" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Deepgram (Free Test)" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Vosk" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="98">
   <si>
     <t>Intel i7-10510U (8) @ 4.900GHz - NVIDIA GeForce MX330 2GB VRAM DDR5 - 32 GB RAM DDR4</t>
   </si>
@@ -271,6 +272,42 @@
   </si>
   <si>
     <t>Qué significa timing?</t>
+  </si>
+  <si>
+    <t>RTX 4070</t>
+  </si>
+  <si>
+    <t>quién es elon musk</t>
+  </si>
+  <si>
+    <t>uno dos tres cuatro cinco seis siete ocho</t>
+  </si>
+  <si>
+    <t>what's the west light</t>
+  </si>
+  <si>
+    <t>Con Ruido</t>
+  </si>
+  <si>
+    <t>quienes irán más</t>
+  </si>
+  <si>
+    <t>qué significa tim</t>
+  </si>
+  <si>
+    <t>what the were like</t>
+  </si>
+  <si>
+    <t>Sin rudio</t>
+  </si>
+  <si>
+    <t>MX330</t>
+  </si>
+  <si>
+    <t>Tiempo (Con Ruido)</t>
+  </si>
+  <si>
+    <t>Tiempo (Sin Ruido)</t>
   </si>
 </sst>
 </file>
@@ -660,6 +697,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2343,4 +2384,366 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="25.25"/>
+    <col customWidth="1" min="3" max="3" width="16.38"/>
+    <col customWidth="1" min="4" max="4" width="37.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.509749889373779</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.531057357788086</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.541745185852051</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.605491399765015</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.551074266433716</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.751364707946777</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.736936807632446</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.553901195526123</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.602389097213745</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.584032297134399</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.749382257461547</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.579264402389526</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.818333148956298</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1.35703563690185</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="37">
+        <f>AVERAGE(C4:C10)</f>
+        <v>0.6039170878</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="35">
+        <f>AVERAGE(C14:C20)</f>
+        <v>0.7491911479</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" s="35">
+        <f>AVERAGE(D24:D25)</f>
+        <v>0.6765541179</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.768322944641113</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.691032648086547</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0.845456361770629</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.724214076995849</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.819357872009277</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.784564495086669</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="17">
+        <v>1.07210779190063</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0.920183181762695</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.833949565887451</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.762375116348266</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="17">
+        <v>1.26911306381225</v>
+      </c>
+      <c r="D36" s="17">
+        <v>1.0520691871643</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1.74627971649169</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1.05305409431457</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="37">
+        <f>AVERAGE(D31:D37)</f>
+        <v>0.8553561143</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="35">
+        <f>AVERAGE(C31:C37)</f>
+        <v>1.050655331</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" s="35">
+        <f>AVERAGE(D41:D42)</f>
+        <v>0.9530057226</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>